--- a/ng-test.xlsx
+++ b/ng-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnemeth\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3099673F-5DF0-4495-93FF-D62B7D8C2025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7B18B1-5DD8-47D7-B9E5-A3CFFA3BAEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="770" windowWidth="24180" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FLUID_Metadata" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Title</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>InvalidEMGUID</t>
+  </si>
+  <si>
+    <t>A035114660061500840002</t>
+  </si>
+  <si>
+    <t>WrongContentId</t>
   </si>
 </sst>
 </file>
@@ -654,18 +666,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN3"/>
+  <dimension ref="A1:BN6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
@@ -926,7 +938,6 @@
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
         <v>67</v>
       </c>
@@ -995,11 +1006,41 @@
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D3" t="s">
         <v>69</v>
       </c>
       <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
         <v>70</v>
       </c>
     </row>
